--- a/in/metadata/participants.xlsx
+++ b/in/metadata/participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\git\janhohenheim\usz-neuro-conversion\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\git\janhohenheim\usz-neuro-conversion\in\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75400977-EEC6-45EF-A115-B7EEFF6D7A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D1746F-D3B9-4A31-9A07-CBB368A41624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="37665" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,7 +2781,7 @@
         <v>10</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>47</v>
@@ -4175,7 +4175,7 @@
         <v>11</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>37</v>
